--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NORTH_DAKOTA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NORTH_DAKOTA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C29">
@@ -812,7 +812,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C32">
@@ -843,7 +843,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C34">
@@ -939,7 +939,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C41">
@@ -1022,7 +1022,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C47">
@@ -1079,7 +1079,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C51">
@@ -1105,7 +1105,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C53">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C75">
@@ -1595,7 +1595,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C88">
@@ -1670,7 +1670,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C93">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C108">
@@ -2043,41 +2043,6 @@
       </c>
       <c r="D118">
         <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NORTH_DAKOTA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NORTH_DAKOTA_2015.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1160,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -1173,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -1186,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1243,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Mazatepec</t>
@@ -1256,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1269,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1300,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -1313,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -1326,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1339,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1370,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Doctor González</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1396,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1427,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Bartolomé Quialana</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Sebastián Nicananduta</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Santo Domingo Teojomulco</t>
@@ -1479,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1510,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1523,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1536,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -1549,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1580,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1593,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1606,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1637,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1668,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -1681,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -1694,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1725,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -1738,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -1751,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1782,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -1795,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -1808,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1839,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1870,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1901,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1932,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1945,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1976,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2007,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -2020,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Total</t>
